--- a/archivos/Calculadora MMI.xlsx
+++ b/archivos/Calculadora MMI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lasallistasorg-my.sharepoint.com/personal/arturocasillas_lasallistas_org_mx/Documents/La Salle/Septimo semestre/Modelos Determinísticos y Estocasticos/Estadistica/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\La Salle\CV\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="497" documentId="8_{BEB3ECD9-87CC-4408-AF8F-084A500115A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{816ABA60-6331-4E22-B878-0BA6E828148E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BD1C25-F361-417B-8BEB-E7665BE6D791}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-26970" yWindow="1890" windowWidth="21600" windowHeight="11325" activeTab="9" xr2:uid="{541DE687-8629-4DEA-A337-BE4C19C99884}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{541DE687-8629-4DEA-A337-BE4C19C99884}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -1403,6 +1403,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>777240</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>724985</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F058415-4461-4319-A151-263F9D17B01D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9349740" y="3962400"/>
+          <a:ext cx="4702625" cy="617220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1469,6 +1513,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257784</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>594872</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEA73AD-7596-4818-BC6D-687CC4ACE1FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8830284" y="3756660"/>
+          <a:ext cx="7469408" cy="2438400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1531,6 +1619,50 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>338262</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>533909</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DFF5D12-257F-4E1E-A2C7-A99979C601D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8910762" y="3764280"/>
+          <a:ext cx="8120447" cy="2011680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2752,7 +2884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{008057C6-13E2-4D44-9360-106618395C69}">
   <dimension ref="B1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G25" sqref="G25:J26"/>
     </sheetView>
   </sheetViews>
@@ -3965,7 +4097,7 @@
   <dimension ref="B1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4545,8 +4677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1CE6429-A83B-42A9-A96D-17412CD81754}">
   <dimension ref="B1:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5126,8 +5258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F2F1A3-8D8C-4643-831E-95E3828AE452}">
   <dimension ref="B1:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
